--- a/Assets/StreamingAssets/SaveData.xlsx
+++ b/Assets/StreamingAssets/SaveData.xlsx
@@ -65,7 +65,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -382,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -391,99 +397,147 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
